--- a/biology/Botanique/Digitaria_insularis/Digitaria_insularis.xlsx
+++ b/biology/Botanique/Digitaria_insularis/Digitaria_insularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Digitaria insularis est une espèce de plantes monocotylédones de la famille des Poaceae, originaire des régions tropicales et subtropicales d'Amérique.
 C'est une plante herbacée, vivace par ses rhizomes, qui se rencontre le long des routes et des voies ferrées, dans les pâturages, les champs cultivés et les forêts perturbées.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,9 +552,11 @@
           <t>Caractère envahissant</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été introduite en Asie tropicale et en Océanie. On la considère dans certaines régions comme une plante envahissante, notamment en Nouvelle-Calédonie[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été introduite en Asie tropicale et en Océanie. On la considère dans certaines régions comme une plante envahissante, notamment en Nouvelle-Calédonie.
 On a signalé des populations résistantes au glyphosate au Brésil et au Paraguay[réf. souhaitée].
 </t>
         </is>
@@ -570,9 +586,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (21 février 2016)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (21 février 2016) :
 Agrostis villosa Steud., pro syn.
 Andropogon fabricii Henrard
 Andropogon insularis L.
